--- a/static/brvm_actions.xlsx
+++ b/static/brvm_actions.xlsx
@@ -483,27 +483,27 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>849</t>
+          <t>2 115</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1 800</t>
+          <t>1 790</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>1 800</t>
+          <t>1 775</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1 790</t>
+          <t>1 760</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>4,07</t>
+          <t>-1,68</t>
         </is>
       </c>
     </row>
@@ -520,27 +520,27 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>6 989</t>
+          <t>3 728</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>5 215</t>
+          <t>5 245</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>4 860</t>
+          <t>5 250</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5 250</t>
+          <t>5 245</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>-0,10</t>
         </is>
       </c>
     </row>
@@ -557,27 +557,27 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>1 400</t>
+          <t>304</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>16 505</t>
+          <t>16 600</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>16 750</t>
+          <t>16 600</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>16 600</t>
+          <t>16 500</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0,58</t>
+          <t>-0,60</t>
         </is>
       </c>
     </row>
@@ -594,27 +594,27 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>3 905</t>
+          <t>2 242</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1 400</t>
+          <t>1 500</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>1 365</t>
+          <t>1 445</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>1 400</t>
+          <t>1 500</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2,19</t>
+          <t>7,14</t>
         </is>
       </c>
     </row>
@@ -631,27 +631,27 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>3 379</t>
+          <t>426</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>4 300</t>
+          <t>4 310</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>4 345</t>
+          <t>4 350</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>4 300</t>
+          <t>4 305</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>0,12</t>
         </is>
       </c>
     </row>
@@ -668,27 +668,27 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2 355</t>
+          <t>7 408</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>3 550</t>
+          <t>3 520</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>3 550</t>
+          <t>3 520</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>3 520</t>
+          <t>3 510</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>-0,85</t>
+          <t>-0,28</t>
         </is>
       </c>
     </row>
@@ -705,7 +705,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>4 327</t>
+          <t>6 683</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -720,12 +720,12 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>6 000</t>
+          <t>6 050</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>0,83</t>
         </is>
       </c>
     </row>
@@ -742,27 +742,27 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>9 641</t>
+          <t>15 104</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>3 640</t>
+          <t>3 650</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>3 640</t>
+          <t>3 695</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>3 670</t>
+          <t>3 650</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0,96</t>
+          <t>-0,54</t>
         </is>
       </c>
     </row>
@@ -779,27 +779,27 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>2 534</t>
+          <t>5 002</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
+          <t>2 550</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>2 510</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>2 600</t>
-        </is>
-      </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2 510</t>
+          <t>2 550</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>-2,71</t>
+          <t>1,59</t>
         </is>
       </c>
     </row>
@@ -816,27 +816,27 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>4 560</t>
+          <t>9 066</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>4 590</t>
+          <t>4 650</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>4 520</t>
+          <t>4 580</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>4 550</t>
+          <t>4 645</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>1,11</t>
+          <t>2,09</t>
         </is>
       </c>
     </row>
@@ -853,27 +853,27 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>252</t>
+          <t>342</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
+          <t>1 290</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
           <t>1 300</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>1 300</t>
-        </is>
-      </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>1 300</t>
+          <t>1 290</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>-0,77</t>
         </is>
       </c>
     </row>
@@ -890,27 +890,27 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>5 012</t>
+          <t>3 530</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>9 800</t>
+          <t>9 655</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>9 800</t>
+          <t>9 900</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>9 900</t>
+          <t>9 780</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0,05</t>
+          <t>-1,21</t>
         </is>
       </c>
     </row>
@@ -927,27 +927,27 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>328</t>
+          <t>584</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>650</t>
+          <t>630</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>650</t>
+          <t>630</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>650</t>
+          <t>635</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>-2,31</t>
         </is>
       </c>
     </row>
@@ -964,27 +964,27 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>23 670</t>
+          <t>3 983</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2 150</t>
+          <t>2 170</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2 200</t>
+          <t>2 170</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2 150</t>
+          <t>2 160</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>-2,27</t>
+          <t>0,47</t>
         </is>
       </c>
     </row>
@@ -1001,12 +1001,12 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>1 902</t>
+          <t>1 827</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>11 250</t>
+          <t>11 200</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1016,12 +1016,12 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>11 200</t>
+          <t>11 300</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>-0,44</t>
+          <t>0,89</t>
         </is>
       </c>
     </row>
@@ -1038,7 +1038,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>558 374</t>
+          <t>1 069 265</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -1075,27 +1075,27 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>11 785</t>
+          <t>4 189</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>4 800</t>
+          <t>4 810</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>4 870</t>
+          <t>4 850</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>4 810</t>
+          <t>4 850</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>-1,84</t>
+          <t>0,83</t>
         </is>
       </c>
     </row>
@@ -1112,7 +1112,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>2 393</t>
+          <t>66</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1122,17 +1122,17 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>4 340</t>
+          <t>4 590</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>4 595</t>
+          <t>4 550</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>-0,98</t>
         </is>
       </c>
     </row>
@@ -1149,7 +1149,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>1 715</t>
+          <t>34</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1164,12 +1164,12 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>595</t>
+          <t>600</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>0,84</t>
         </is>
       </c>
     </row>
@@ -1186,12 +1186,12 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>18 715</t>
+          <t>1 101</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>9 495</t>
+          <t>9 500</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1201,12 +1201,12 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>9 600</t>
+          <t>9 595</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>-0,98</t>
+          <t>-0,05</t>
         </is>
       </c>
     </row>
@@ -1223,27 +1223,27 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>2 768</t>
+          <t>1 202</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>12 450</t>
+          <t>12 300</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>12 200</t>
+          <t>12 295</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>12 300</t>
+          <t>12 475</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>0,82</t>
+          <t>1,42</t>
         </is>
       </c>
     </row>
@@ -1260,27 +1260,27 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>8 932</t>
+          <t>4 673</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2 340</t>
+          <t>2 300</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>2 345</t>
+          <t>2 260</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2 340</t>
+          <t>2 290</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>-0,21</t>
+          <t>-2,14</t>
         </is>
       </c>
     </row>
@@ -1297,27 +1297,27 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>12 002</t>
+          <t>8 942</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>14 000</t>
+          <t>14 100</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>14 000</t>
+          <t>14 100</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>14 100</t>
+          <t>14 150</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>0,71</t>
+          <t>0,35</t>
         </is>
       </c>
     </row>
@@ -1334,27 +1334,27 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>498</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>1 620</t>
+          <t>1 685</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>1 605</t>
+          <t>1 625</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>1 620</t>
+          <t>1 685</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>2,53</t>
+          <t>4,01</t>
         </is>
       </c>
     </row>
@@ -1371,27 +1371,27 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>1 594</t>
+          <t>1 891</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>8 590</t>
+          <t>8 795</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>8 590</t>
+          <t>8 595</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>8 590</t>
+          <t>8 800</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>2,44</t>
         </is>
       </c>
     </row>
@@ -1408,17 +1408,17 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>128</t>
+          <t>228</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>2 670</t>
+          <t>2 680</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>2 670</t>
+          <t>2 680</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -1428,7 +1428,7 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>0,37</t>
+          <t>0,00</t>
         </is>
       </c>
     </row>
@@ -1445,27 +1445,27 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>23 082</t>
+          <t>23 883</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>1 130</t>
+          <t>1 210</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>1 130</t>
+          <t>1 210</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>1 130</t>
+          <t>1 210</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>7,11</t>
+          <t>7,08</t>
         </is>
       </c>
     </row>
@@ -1482,7 +1482,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>62 237</t>
+          <t>14 053</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1519,27 +1519,27 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>1 772</t>
+          <t>557</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>6 100</t>
+          <t>6 000</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
+          <t>6 000</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
           <t>5 890</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>6 000</t>
-        </is>
-      </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>-1,64</t>
+          <t>-1,83</t>
         </is>
       </c>
     </row>
@@ -1556,7 +1556,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>49 809</t>
+          <t>1 147</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1571,12 +1571,12 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>1 440</t>
+          <t>1 435</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>-0,35</t>
         </is>
       </c>
     </row>
@@ -1630,27 +1630,27 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>25 478</t>
+          <t>346</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>24 500</t>
+          <t>25 400</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
+          <t>25 900</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
           <t>25 400</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>24 500</t>
-        </is>
-      </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>-3,71</t>
+          <t>3,67</t>
         </is>
       </c>
     </row>
@@ -1667,27 +1667,27 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>11 776</t>
+          <t>10 457</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
+          <t>1 135</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
           <t>1 140</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>1 080</t>
-        </is>
-      </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>1 135</t>
+          <t>1 130</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>5,09</t>
+          <t>-0,44</t>
         </is>
       </c>
     </row>
@@ -1704,7 +1704,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>8 233</t>
+          <t>8 728</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1714,17 +1714,17 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>4 800</t>
+          <t>4 795</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>4 795</t>
+          <t>4 790</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>-0,10</t>
         </is>
       </c>
     </row>
@@ -1741,7 +1741,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>15</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1751,7 +1751,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3 280</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -1778,7 +1778,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>113</t>
+          <t>844</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1793,12 +1793,12 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>540</t>
+          <t>550</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>1,85</t>
         </is>
       </c>
     </row>
@@ -1815,27 +1815,27 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>1 044</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>18 600</t>
+          <t>18 000</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>18 600</t>
+          <t>18 700</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>18 600</t>
+          <t>18 000</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>-3,23</t>
         </is>
       </c>
     </row>
@@ -1852,27 +1852,27 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>518</t>
+          <t>130</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
+          <t>9 700</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
           <t>9 200</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>9 200</t>
-        </is>
-      </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>9 250</t>
+          <t>9 700</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>0,54</t>
+          <t>4,86</t>
         </is>
       </c>
     </row>
@@ -1889,27 +1889,27 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>43 684</t>
+          <t>23 574</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>25 000</t>
+          <t>24 995</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>24 650</t>
+          <t>24 750</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>24 995</t>
+          <t>24 900</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>-0,02</t>
+          <t>-0,38</t>
         </is>
       </c>
     </row>
@@ -1926,17 +1926,17 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>1 899</t>
+          <t>14 826</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>7 600</t>
+          <t>7 750</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>7 600</t>
+          <t>7 750</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -1946,7 +1946,7 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>1,97</t>
+          <t>0,00</t>
         </is>
       </c>
     </row>
@@ -1963,27 +1963,27 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>3 780</t>
+          <t>564</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
+          <t>6 510</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
           <t>6 695</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>6 700</t>
-        </is>
-      </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>6 695</t>
+          <t>6 600</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>-0,07</t>
+          <t>-1,42</t>
         </is>
       </c>
     </row>
@@ -2000,27 +2000,27 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>4 605</t>
+          <t>57</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>550</t>
+          <t>535</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>560</t>
+          <t>530</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>550</t>
+          <t>535</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>-1,79</t>
+          <t>-2,73</t>
         </is>
       </c>
     </row>
@@ -2037,27 +2037,27 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>5 272</t>
+          <t>6 047</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>20 085</t>
+          <t>20 795</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>20 300</t>
+          <t>20 805</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>20 085</t>
+          <t>20 795</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>0,45</t>
+          <t>3,53</t>
         </is>
       </c>
     </row>
@@ -2074,27 +2074,27 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>2 338</t>
+          <t>49 595</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
+          <t>2 425</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
           <t>2 595</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>2 595</t>
-        </is>
-      </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>2 595</t>
+          <t>2 425</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>-6,55</t>
         </is>
       </c>
     </row>
@@ -2111,7 +2111,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>1 238</t>
+          <t>1 024</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -2121,7 +2121,7 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>2 500</t>
+          <t>2 400</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -2185,27 +2185,27 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>16 840</t>
+          <t>2 069</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
+          <t>575</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
           <t>550</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>585</t>
-        </is>
-      </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>550</t>
+          <t>575</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>-5,17</t>
+          <t>4,55</t>
         </is>
       </c>
     </row>
